--- a/Data/reservasData.xlsx
+++ b/Data/reservasData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinegarcia/Desktop/Rockstars/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinegarcia/Desktop/Rockstars/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D784162-2276-4441-A6C0-D2C88410C6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7594A1-9E2E-1847-860B-27D2FF7317D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12880" yWindow="500" windowWidth="15540" windowHeight="15520" xr2:uid="{4BA3FFDF-2BD2-4D41-B2AC-3E22E6A6328D}"/>
   </bookViews>
@@ -412,7 +412,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -444,7 +444,7 @@
         <v>10001</v>
       </c>
       <c r="C2">
-        <v>101</v>
+        <v>10001101</v>
       </c>
       <c r="D2">
         <v>12341</v>
@@ -459,7 +459,7 @@
         <v>10002</v>
       </c>
       <c r="C3">
-        <v>105</v>
+        <v>10002105</v>
       </c>
       <c r="D3">
         <v>12340</v>
@@ -474,7 +474,7 @@
         <v>10003</v>
       </c>
       <c r="C4">
-        <v>102</v>
+        <v>10003102</v>
       </c>
       <c r="D4">
         <v>12341</v>
@@ -489,7 +489,7 @@
         <v>10004</v>
       </c>
       <c r="C5">
-        <v>109</v>
+        <v>10004109</v>
       </c>
       <c r="D5">
         <v>12342</v>
@@ -504,7 +504,7 @@
         <v>10005</v>
       </c>
       <c r="C6">
-        <v>110</v>
+        <v>10005110</v>
       </c>
       <c r="D6">
         <v>12343</v>
@@ -519,7 +519,7 @@
         <v>10002</v>
       </c>
       <c r="C7">
-        <v>106</v>
+        <v>11000206</v>
       </c>
       <c r="D7">
         <v>12344</v>
@@ -533,7 +533,7 @@
         <v>10003</v>
       </c>
       <c r="C8">
-        <v>107</v>
+        <v>10003107</v>
       </c>
       <c r="D8">
         <v>12345</v>
@@ -547,7 +547,7 @@
         <v>10004</v>
       </c>
       <c r="C9">
-        <v>104</v>
+        <v>10004104</v>
       </c>
       <c r="D9">
         <v>12346</v>
@@ -561,7 +561,7 @@
         <v>10001</v>
       </c>
       <c r="C10">
-        <v>102</v>
+        <v>10001102</v>
       </c>
       <c r="D10">
         <v>12347</v>
@@ -575,7 +575,7 @@
         <v>10002</v>
       </c>
       <c r="C11">
-        <v>108</v>
+        <v>11000208</v>
       </c>
       <c r="D11">
         <v>12348</v>
@@ -589,7 +589,7 @@
         <v>10003</v>
       </c>
       <c r="C12">
-        <v>109</v>
+        <v>10003109</v>
       </c>
       <c r="D12">
         <v>12349</v>
@@ -603,7 +603,7 @@
         <v>10001</v>
       </c>
       <c r="C13">
-        <v>110</v>
+        <v>10001110</v>
       </c>
       <c r="D13">
         <v>12350</v>
@@ -617,7 +617,7 @@
         <v>10003</v>
       </c>
       <c r="C14">
-        <v>105</v>
+        <v>10003105</v>
       </c>
       <c r="D14">
         <v>12351</v>
@@ -631,7 +631,7 @@
         <v>10002</v>
       </c>
       <c r="C15">
-        <v>106</v>
+        <v>11000206</v>
       </c>
       <c r="D15">
         <v>12352</v>
@@ -645,7 +645,7 @@
         <v>10003</v>
       </c>
       <c r="C16">
-        <v>107</v>
+        <v>10003107</v>
       </c>
       <c r="D16">
         <v>12353</v>
@@ -659,7 +659,7 @@
         <v>10001</v>
       </c>
       <c r="C17">
-        <v>108</v>
+        <v>10001108</v>
       </c>
       <c r="D17">
         <v>12354</v>
@@ -673,7 +673,7 @@
         <v>10003</v>
       </c>
       <c r="C18">
-        <v>103</v>
+        <v>10003103</v>
       </c>
       <c r="D18">
         <v>12355</v>
@@ -687,7 +687,7 @@
         <v>10001</v>
       </c>
       <c r="C19">
-        <v>101</v>
+        <v>10001101</v>
       </c>
       <c r="D19">
         <v>12356</v>
@@ -701,7 +701,7 @@
         <v>10002</v>
       </c>
       <c r="C20">
-        <v>104</v>
+        <v>11000204</v>
       </c>
       <c r="D20">
         <v>12357</v>
@@ -715,7 +715,7 @@
         <v>10004</v>
       </c>
       <c r="C21">
-        <v>105</v>
+        <v>10004105</v>
       </c>
       <c r="D21">
         <v>12358</v>
@@ -729,7 +729,7 @@
         <v>10001</v>
       </c>
       <c r="C22">
-        <v>106</v>
+        <v>10001106</v>
       </c>
       <c r="D22">
         <v>12359</v>
@@ -743,7 +743,7 @@
         <v>10005</v>
       </c>
       <c r="C23">
-        <v>107</v>
+        <v>10005107</v>
       </c>
       <c r="D23">
         <v>12360</v>
@@ -757,7 +757,7 @@
         <v>10004</v>
       </c>
       <c r="C24">
-        <v>108</v>
+        <v>10004108</v>
       </c>
       <c r="D24">
         <v>12361</v>
@@ -771,7 +771,7 @@
         <v>10002</v>
       </c>
       <c r="C25">
-        <v>109</v>
+        <v>11000209</v>
       </c>
       <c r="D25">
         <v>12362</v>
@@ -785,7 +785,7 @@
         <v>10001</v>
       </c>
       <c r="C26">
-        <v>110</v>
+        <v>10001110</v>
       </c>
       <c r="D26">
         <v>12363</v>

--- a/Data/reservasData.xlsx
+++ b/Data/reservasData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinegarcia/Desktop/Rockstars/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7594A1-9E2E-1847-860B-27D2FF7317D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B99214-655D-9043-866C-A7BE7D4CBEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12880" yWindow="500" windowWidth="15540" windowHeight="15520" xr2:uid="{4BA3FFDF-2BD2-4D41-B2AC-3E22E6A6328D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>id_cliente</t>
   </si>
@@ -47,6 +47,75 @@
   </si>
   <si>
     <t>id_habitacion</t>
+  </si>
+  <si>
+    <t>fecha_ingreso</t>
+  </si>
+  <si>
+    <t>fecha_egreso</t>
+  </si>
+  <si>
+    <t>2022-01-03</t>
+  </si>
+  <si>
+    <t>2022-01-05</t>
+  </si>
+  <si>
+    <t>2022-01-06</t>
+  </si>
+  <si>
+    <t>2022-01-07</t>
+  </si>
+  <si>
+    <t>2022-01-08</t>
+  </si>
+  <si>
+    <t>2022-01-10</t>
+  </si>
+  <si>
+    <t>2022-01-11</t>
+  </si>
+  <si>
+    <t>2022-01-13</t>
+  </si>
+  <si>
+    <t>2022-01-14</t>
+  </si>
+  <si>
+    <t>2022-01-15</t>
+  </si>
+  <si>
+    <t>2022-01-16</t>
+  </si>
+  <si>
+    <t>2022-01-17</t>
+  </si>
+  <si>
+    <t>2022-01-18</t>
+  </si>
+  <si>
+    <t>2022-01-22</t>
+  </si>
+  <si>
+    <t>2022-01-23</t>
+  </si>
+  <si>
+    <t>2022-01-24</t>
+  </si>
+  <si>
+    <t>2022-01-25</t>
+  </si>
+  <si>
+    <t>2022-01-26</t>
+  </si>
+  <si>
+    <t>2022-01-27</t>
+  </si>
+  <si>
+    <t>2022-01-28</t>
+  </si>
+  <si>
+    <t>2022-01-29</t>
   </si>
 </sst>
 </file>
@@ -62,9 +131,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,16 +154,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -409,16 +474,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C94487-4061-C44A-9CBB-339E72CB2F4D}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.83203125" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
     <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -435,6 +501,12 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -449,7 +521,12 @@
       <c r="D2">
         <v>12341</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -464,7 +541,12 @@
       <c r="D3">
         <v>12340</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -479,7 +561,12 @@
       <c r="D4">
         <v>12341</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -494,7 +581,12 @@
       <c r="D5">
         <v>12342</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -509,7 +601,12 @@
       <c r="D6">
         <v>12343</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -524,6 +621,12 @@
       <c r="D7">
         <v>12344</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -538,6 +641,12 @@
       <c r="D8">
         <v>12345</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -552,6 +661,12 @@
       <c r="D9">
         <v>12346</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -566,6 +681,12 @@
       <c r="D10">
         <v>12347</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -580,6 +701,12 @@
       <c r="D11">
         <v>12348</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -594,6 +721,12 @@
       <c r="D12">
         <v>12349</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -608,6 +741,12 @@
       <c r="D13">
         <v>12350</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -622,6 +761,12 @@
       <c r="D14">
         <v>12351</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -636,6 +781,12 @@
       <c r="D15">
         <v>12352</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -650,8 +801,14 @@
       <c r="D16">
         <v>12353</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>123016</v>
       </c>
@@ -664,8 +821,14 @@
       <c r="D17">
         <v>12354</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>123017</v>
       </c>
@@ -678,8 +841,14 @@
       <c r="D18">
         <v>12355</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>123018</v>
       </c>
@@ -692,8 +861,14 @@
       <c r="D19">
         <v>12356</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>123019</v>
       </c>
@@ -706,8 +881,14 @@
       <c r="D20">
         <v>12357</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>123020</v>
       </c>
@@ -720,8 +901,14 @@
       <c r="D21">
         <v>12358</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>123021</v>
       </c>
@@ -734,8 +921,14 @@
       <c r="D22">
         <v>12359</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>123022</v>
       </c>
@@ -748,8 +941,14 @@
       <c r="D23">
         <v>12360</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>123023</v>
       </c>
@@ -762,8 +961,14 @@
       <c r="D24">
         <v>12361</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>123024</v>
       </c>
@@ -776,8 +981,14 @@
       <c r="D25">
         <v>12362</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>123025</v>
       </c>
@@ -790,8 +1001,19 @@
       <c r="D26">
         <v>12363</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/reservasData.xlsx
+++ b/Data/reservasData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinegarcia/Desktop/Rockstars/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B99214-655D-9043-866C-A7BE7D4CBEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D310A3-5F79-8846-B3B1-73B5EC322CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12880" yWindow="500" windowWidth="15540" windowHeight="15520" xr2:uid="{4BA3FFDF-2BD2-4D41-B2AC-3E22E6A6328D}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>id_cliente</t>
   </si>
   <si>
-    <t>Id_reserva</t>
-  </si>
-  <si>
     <t>id_hotel</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
   </si>
   <si>
     <t>2022-01-29</t>
+  </si>
+  <si>
+    <t>id_reserva</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -490,22 +490,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -522,10 +522,10 @@
         <v>12341</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -542,10 +542,10 @@
         <v>12340</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -562,10 +562,10 @@
         <v>12341</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -582,10 +582,10 @@
         <v>12342</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -602,10 +602,10 @@
         <v>12343</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -622,10 +622,10 @@
         <v>12344</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -642,10 +642,10 @@
         <v>12345</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -662,10 +662,10 @@
         <v>12346</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -682,10 +682,10 @@
         <v>12347</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -702,10 +702,10 @@
         <v>12348</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -722,10 +722,10 @@
         <v>12349</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -742,10 +742,10 @@
         <v>12350</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -762,10 +762,10 @@
         <v>12351</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -782,10 +782,10 @@
         <v>12352</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -802,10 +802,10 @@
         <v>12353</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -822,10 +822,10 @@
         <v>12354</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -842,10 +842,10 @@
         <v>12355</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -862,10 +862,10 @@
         <v>12356</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -882,10 +882,10 @@
         <v>12357</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -902,10 +902,10 @@
         <v>12358</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -922,10 +922,10 @@
         <v>12359</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -942,10 +942,10 @@
         <v>12360</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -962,10 +962,10 @@
         <v>12361</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -982,10 +982,10 @@
         <v>12362</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1002,10 +1002,10 @@
         <v>12363</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
